--- a/FootballManager/PlayersFMimport.xlsx
+++ b/FootballManager/PlayersFMimport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torgeir Krohn\PycharmProjects\untitled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E19FA-A947-4EF8-A285-5734493A7B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A682C19-56D9-4812-8ACA-FC2C0D88682C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53306A33-C771-4D44-998C-1172E754579E}"/>
+    <workbookView xWindow="6015" yWindow="2400" windowWidth="21600" windowHeight="11325" xr2:uid="{53306A33-C771-4D44-998C-1172E754579E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4A9F8E78-9D8D-4FD4-832A-2927625CC845}</author>
+    <author>tc={3D1D8103-AB19-4363-8AA4-8F17019EE031}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4A9F8E78-9D8D-4FD4-832A-2927625CC845}">
@@ -46,12 +47,20 @@
     Insert the first player you want to import here</t>
       </text>
     </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{3D1D8103-AB19-4363-8AA4-8F17019EE031}">
+      <text>
+        <t>[Kommentartråd]
+Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Lim inn verdier her</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Kylian</t>
   </si>
@@ -147,6 +156,54 @@
   </si>
   <si>
     <t>Sterling</t>
+  </si>
+  <si>
+    <t>Manuel Neuer</t>
+  </si>
+  <si>
+    <t>Kylian Mbappe</t>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+  </si>
+  <si>
+    <t>Philipe Coutinho</t>
+  </si>
+  <si>
+    <t>Zlatan Ibrahimovic</t>
+  </si>
+  <si>
+    <t>Virgil Van Dijk</t>
+  </si>
+  <si>
+    <t>Allison Becker</t>
+  </si>
+  <si>
+    <t>Marc Van der Stegen</t>
+  </si>
+  <si>
+    <t>Jordi Alba</t>
+  </si>
+  <si>
+    <t>Sergio Ramos</t>
+  </si>
+  <si>
+    <t>N'golo Kante</t>
+  </si>
+  <si>
+    <t>Bruno Fernandes</t>
+  </si>
+  <si>
+    <t>Luka Modric</t>
+  </si>
+  <si>
+    <t>Ilkay Gundogan</t>
+  </si>
+  <si>
+    <t>Bernardo Silva</t>
+  </si>
+  <si>
+    <t>Raheem Sterling</t>
   </si>
 </sst>
 </file>
@@ -514,148 +571,264 @@
   <threadedComment ref="A1" dT="2020-05-10T09:56:22.03" personId="{827E717C-220D-4C65-98C5-36425A09F394}" id="{4A9F8E78-9D8D-4FD4-832A-2927625CC845}">
     <text>Insert the first player you want to import here</text>
   </threadedComment>
+  <threadedComment ref="D1" dT="2020-07-01T08:44:31.95" personId="{827E717C-220D-4C65-98C5-36425A09F394}" id="{3D1D8103-AB19-4363-8AA4-8F17019EE031}">
+    <text>Lim inn verdier her</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270C4CE-AD54-4027-B588-23A9CD0A260F}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="str">
+        <f>A1&amp;" "&amp;B1</f>
+        <v>Manuel Neuer</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:D16" si="0">A2&amp;" "&amp;B2</f>
+        <v>Kylian Mbappe</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Lionel Messi</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Philipe Coutinho</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Zlatan Ibrahimovic</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Virgil Van Dijk</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Allison Becker</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Marc Van der Stegen</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordi Alba</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sergio Ramos</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>N'golo Kante</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Bruno Fernandes</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Luka Modric</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ilkay Gundogan</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bernardo Silva</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Raheem Sterling</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
